--- a/01.Web_Crawling/data/melon_year.xlsx
+++ b/01.Web_Crawling/data/melon_year.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="517">
   <si>
     <t>년도</t>
   </si>
@@ -88,18 +88,12 @@
     <t>Downtown Baby</t>
   </si>
   <si>
-    <t>2002</t>
-  </si>
-  <si>
     <t>마리아 (Maria)</t>
   </si>
   <si>
     <t>어떻게 지내 (Prod. By VAN.C)</t>
   </si>
   <si>
-    <t>Dance Monkey</t>
-  </si>
-  <si>
     <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
   </si>
   <si>
@@ -112,9 +106,6 @@
     <t>사랑하게 될 줄 알았어</t>
   </si>
   <si>
-    <t>Memories</t>
-  </si>
-  <si>
     <t>안녕</t>
   </si>
   <si>
@@ -133,9 +124,6 @@
     <t>우리 왜 헤어져야 해</t>
   </si>
   <si>
-    <t>Don't Start Now</t>
-  </si>
-  <si>
     <t>좋은 사람 있으면 소개시켜줘</t>
   </si>
   <si>
@@ -151,9 +139,6 @@
     <t>Summer Hate (Feat. 비)</t>
   </si>
   <si>
-    <t>Paris In The Rain</t>
-  </si>
-  <si>
     <t>나비와 고양이 (feat.백현 (BAEKHYUN))</t>
   </si>
   <si>
@@ -172,12 +157,6 @@
     <t>사랑이란 멜로는 없어</t>
   </si>
   <si>
-    <t>bad guy</t>
-  </si>
-  <si>
-    <t>Maniac</t>
-  </si>
-  <si>
     <t>반만</t>
   </si>
   <si>
@@ -223,9 +202,6 @@
     <t>화려하지 않은 고백</t>
   </si>
   <si>
-    <t>Painkiller</t>
-  </si>
-  <si>
     <t>MORE &amp; MORE</t>
   </si>
   <si>
@@ -283,18 +259,9 @@
     <t>주저하는 연인들을 위해</t>
   </si>
   <si>
-    <t>To Die For</t>
-  </si>
-  <si>
     <t>Moon</t>
   </si>
   <si>
-    <t>12:45 (Stripped)</t>
-  </si>
-  <si>
-    <t>Señorita</t>
-  </si>
-  <si>
     <t>니 소식</t>
   </si>
   <si>
@@ -331,15 +298,45 @@
     <t>새 사랑</t>
   </si>
   <si>
+    <t>덤디덤디 (DUMDi DUMDi)</t>
+  </si>
+  <si>
+    <t>We are Bulletproof : the Eternal</t>
+  </si>
+  <si>
+    <t>BAND</t>
+  </si>
+  <si>
+    <t>깡 Official Remix</t>
+  </si>
+  <si>
+    <t>그대라는 시</t>
+  </si>
+  <si>
+    <t>Inner Child</t>
+  </si>
+  <si>
+    <t>사계 (Four Seasons)</t>
+  </si>
+  <si>
+    <t>찐이야</t>
+  </si>
+  <si>
+    <t>비</t>
+  </si>
+  <si>
+    <t>너에게 난, 나에게 넌</t>
+  </si>
+  <si>
+    <t>어떤 날엔</t>
+  </si>
+  <si>
     <t>그때가 좋았어</t>
   </si>
   <si>
     <t>넘쳐흘러</t>
   </si>
   <si>
-    <t>사계 (Four Seasons)</t>
-  </si>
-  <si>
     <t>벌써 12시</t>
   </si>
   <si>
@@ -388,15 +385,9 @@
     <t>초록빛</t>
   </si>
   <si>
-    <t>그대라는 시</t>
-  </si>
-  <si>
     <t>Way Back Home</t>
   </si>
   <si>
-    <t>Speechless (Full) (From "Aladdin"/Soundtrack Version)</t>
-  </si>
-  <si>
     <t>IDOL</t>
   </si>
   <si>
@@ -424,9 +415,6 @@
     <t>SOLO</t>
   </si>
   <si>
-    <t>비</t>
-  </si>
-  <si>
     <t>내 생에 아름다운</t>
   </si>
   <si>
@@ -454,9 +442,6 @@
     <t>워커홀릭</t>
   </si>
   <si>
-    <t>thank u, next</t>
-  </si>
-  <si>
     <t>Snapping</t>
   </si>
   <si>
@@ -466,9 +451,6 @@
     <t>고백</t>
   </si>
   <si>
-    <t>BAND</t>
-  </si>
-  <si>
     <t>MILLIONS</t>
   </si>
   <si>
@@ -478,9 +460,6 @@
     <t>흔한 이별</t>
   </si>
   <si>
-    <t>7 rings</t>
-  </si>
-  <si>
     <t>인사</t>
   </si>
   <si>
@@ -514,9 +493,6 @@
     <t>나의 어깨에 기대어요</t>
   </si>
   <si>
-    <t>Believer</t>
-  </si>
-  <si>
     <t>내 맘을 볼 수 있나요</t>
   </si>
   <si>
@@ -556,6 +532,27 @@
     <t>We don't talk together (Feat. 기리보이) (Prod. SUGA)</t>
   </si>
   <si>
+    <t>뜨거운 여름밤은 가고 남은 건 볼품없지만</t>
+  </si>
+  <si>
+    <t>그러나</t>
+  </si>
+  <si>
+    <t>AH YEAH (아예)</t>
+  </si>
+  <si>
+    <t>인기 (Feat. 송가인, 챈슬러)</t>
+  </si>
+  <si>
+    <t>ICY</t>
+  </si>
+  <si>
+    <t>눈 (Prod. 기리보이)</t>
+  </si>
+  <si>
+    <t>오늘 밤에</t>
+  </si>
+  <si>
     <t>사랑을 했다 (LOVE SCENARIO)</t>
   </si>
   <si>
@@ -577,18 +574,12 @@
     <t>여행</t>
   </si>
   <si>
-    <t>Havana (Feat. Young Thug)</t>
-  </si>
-  <si>
     <t>You</t>
   </si>
   <si>
     <t>별이 빛나는 밤</t>
   </si>
   <si>
-    <t>HandClap</t>
-  </si>
-  <si>
     <t>주지마</t>
   </si>
   <si>
@@ -625,9 +616,6 @@
     <t>그리워하다</t>
   </si>
   <si>
-    <t>Shape of You</t>
-  </si>
-  <si>
     <t>이 별</t>
   </si>
   <si>
@@ -721,9 +709,6 @@
     <t>마지막처럼</t>
   </si>
   <si>
-    <t>Thunder</t>
-  </si>
-  <si>
     <t>EVERYDAY</t>
   </si>
   <si>
@@ -751,9 +736,6 @@
     <t>기억의 빈자리</t>
   </si>
   <si>
-    <t>There's Nothing Holdin' Me Back</t>
-  </si>
-  <si>
     <t>썸 탈꺼야</t>
   </si>
   <si>
@@ -778,9 +760,6 @@
     <t>LATATA</t>
   </si>
   <si>
-    <t>Chandelier</t>
-  </si>
-  <si>
     <t>답장</t>
   </si>
   <si>
@@ -808,6 +787,21 @@
     <t>花요일 (Blooming Day)</t>
   </si>
   <si>
+    <t>바람이 불었으면 좋겠어</t>
+  </si>
+  <si>
+    <t>시간이 들겠지 (Feat. Colde)</t>
+  </si>
+  <si>
+    <t>flex (Prod. By 기리보이)</t>
+  </si>
+  <si>
+    <t>바보야</t>
+  </si>
+  <si>
+    <t>가시나</t>
+  </si>
+  <si>
     <t>좋다고 말해</t>
   </si>
   <si>
@@ -886,9 +880,6 @@
     <t>BLUE MOON (Prod. GroovyRoom)</t>
   </si>
   <si>
-    <t>가시나</t>
-  </si>
-  <si>
     <t>All I Wanna Do (K) (Feat. Hoody, Loco)</t>
   </si>
   <si>
@@ -916,12 +907,6 @@
     <t>너였다면</t>
   </si>
   <si>
-    <t>Love Yourself</t>
-  </si>
-  <si>
-    <t>Closer (Feat. Halsey)</t>
-  </si>
-  <si>
     <t>I Miss You</t>
   </si>
   <si>
@@ -979,9 +964,6 @@
     <t>널 사랑하지 않아</t>
   </si>
   <si>
-    <t>바람이 불었으면 좋겠어</t>
-  </si>
-  <si>
     <t>우리집을 못 찾겠군요 (Feat. 볼빨간사춘기)</t>
   </si>
   <si>
@@ -1039,9 +1021,6 @@
     <t>NEVER</t>
   </si>
   <si>
-    <t>Something Just Like This</t>
-  </si>
-  <si>
     <t>Why Don't You Know (Feat. 넉살)</t>
   </si>
   <si>
@@ -1051,12 +1030,21 @@
     <t>이런 엔딩</t>
   </si>
   <si>
-    <t>I'm Not The Only One</t>
-  </si>
-  <si>
     <t>LONELY</t>
   </si>
   <si>
+    <t>FIVE</t>
+  </si>
+  <si>
+    <t>이 지금</t>
+  </si>
+  <si>
+    <t>행복한 척</t>
+  </si>
+  <si>
+    <t>너무너무너무</t>
+  </si>
+  <si>
     <t>지코 (ZICO)</t>
   </si>
   <si>
@@ -1102,18 +1090,12 @@
     <t>블루 (BLOO)</t>
   </si>
   <si>
-    <t>Anne-Marie</t>
-  </si>
-  <si>
     <t>화사 (Hwa Sa)</t>
   </si>
   <si>
     <t>오반 (OVAN)</t>
   </si>
   <si>
-    <t>Tones And I</t>
-  </si>
-  <si>
     <t>폴킴</t>
   </si>
   <si>
@@ -1123,9 +1105,6 @@
     <t>전미도</t>
   </si>
   <si>
-    <t>Maroon 5</t>
-  </si>
-  <si>
     <t>김필</t>
   </si>
   <si>
@@ -1138,18 +1117,12 @@
     <t>신예영</t>
   </si>
   <si>
-    <t>Dua Lipa</t>
-  </si>
-  <si>
     <t>조이 (JOY)</t>
   </si>
   <si>
     <t>백현 (BAEKHYUN)</t>
   </si>
   <si>
-    <t>Lauv</t>
-  </si>
-  <si>
     <t>볼빨간사춘기</t>
   </si>
   <si>
@@ -1168,12 +1141,6 @@
     <t>전상근</t>
   </si>
   <si>
-    <t>Billie Eilish</t>
-  </si>
-  <si>
-    <t>Conan Gray</t>
-  </si>
-  <si>
     <t>진민호</t>
   </si>
   <si>
@@ -1210,9 +1177,6 @@
     <t>규현 (KYUHYUN)</t>
   </si>
   <si>
-    <t>Ruel</t>
-  </si>
-  <si>
     <t>TWICE (트와이스)</t>
   </si>
   <si>
@@ -1237,15 +1201,6 @@
     <t>잔나비</t>
   </si>
   <si>
-    <t>Sam Smith</t>
-  </si>
-  <si>
-    <t>Etham</t>
-  </si>
-  <si>
-    <t>Shawn Mendes</t>
-  </si>
-  <si>
     <t>송하예</t>
   </si>
   <si>
@@ -1267,12 +1222,27 @@
     <t>Crush</t>
   </si>
   <si>
+    <t>(여자)아이들</t>
+  </si>
+  <si>
+    <t>식케이 (Sik-K)</t>
+  </si>
+  <si>
+    <t>태연 (TAEYEON)</t>
+  </si>
+  <si>
+    <t>영탁</t>
+  </si>
+  <si>
+    <t>미도와 파라솔</t>
+  </si>
+  <si>
+    <t>김재환</t>
+  </si>
+  <si>
     <t>케이시 (Kassy)</t>
   </si>
   <si>
-    <t>태연 (TAEYEON)</t>
-  </si>
-  <si>
     <t>청하</t>
   </si>
   <si>
@@ -1288,7 +1258,7 @@
     <t>벤</t>
   </si>
   <si>
-    <t>하은</t>
+    <t>하은 (포맨)</t>
   </si>
   <si>
     <t>첸 (CHEN)</t>
@@ -1297,9 +1267,6 @@
     <t>숀 (SHAUN)</t>
   </si>
   <si>
-    <t>Naomi Scott</t>
-  </si>
-  <si>
     <t>이소라</t>
   </si>
   <si>
@@ -1330,9 +1297,6 @@
     <t>MINO (송민호)</t>
   </si>
   <si>
-    <t>Ariana Grande</t>
-  </si>
-  <si>
     <t>양다일</t>
   </si>
   <si>
@@ -1357,9 +1321,6 @@
     <t>10CM</t>
   </si>
   <si>
-    <t>Imagine Dragons</t>
-  </si>
-  <si>
     <t>헤이즈 (Heize)</t>
   </si>
   <si>
@@ -1378,6 +1339,15 @@
     <t>기리보이</t>
   </si>
   <si>
+    <t>MC몽</t>
+  </si>
+  <si>
+    <t>Lil tachi</t>
+  </si>
+  <si>
+    <t>홍진영</t>
+  </si>
+  <si>
     <t>iKON</t>
   </si>
   <si>
@@ -1387,12 +1357,6 @@
     <t>로이킴</t>
   </si>
   <si>
-    <t>Camila Cabello</t>
-  </si>
-  <si>
-    <t>Fitz &amp; The Tantrums</t>
-  </si>
-  <si>
     <t>로꼬</t>
   </si>
   <si>
@@ -1408,9 +1372,6 @@
     <t>DEAN</t>
   </si>
   <si>
-    <t>Ed Sheeran</t>
-  </si>
-  <si>
     <t>길구봉구</t>
   </si>
   <si>
@@ -1456,12 +1417,6 @@
     <t>Rohann (이로한)</t>
   </si>
   <si>
-    <t>(여자)아이들</t>
-  </si>
-  <si>
-    <t>Sia</t>
-  </si>
-  <si>
     <t>김동률</t>
   </si>
   <si>
@@ -1507,12 +1462,6 @@
     <t>하이라이트 (Highlight)</t>
   </si>
   <si>
-    <t>Justin Bieber</t>
-  </si>
-  <si>
-    <t>The Chainsmokers</t>
-  </si>
-  <si>
     <t>소유 (SOYOU)</t>
   </si>
   <si>
@@ -1564,6 +1513,9 @@
     <t>씨스타</t>
   </si>
   <si>
+    <t>수지 (SUZY)</t>
+  </si>
+  <si>
     <t>랩/힙합</t>
   </si>
   <si>
@@ -1588,9 +1540,6 @@
     <t>랩/힙합, 인디음악</t>
   </si>
   <si>
-    <t>POP</t>
-  </si>
-  <si>
     <t>인디음악, 포크/블루스</t>
   </si>
   <si>
@@ -1609,12 +1558,6 @@
     <t>인디음악, 일렉트로니카</t>
   </si>
   <si>
-    <t>POP, 국외영화</t>
-  </si>
-  <si>
-    <t>POP, 록/메탈</t>
-  </si>
-  <si>
     <t>발라드, R&amp;B/Soul, 국내드라마</t>
   </si>
   <si>
@@ -1622,9 +1565,6 @@
   </si>
   <si>
     <t>발라드, 랩/힙합, 국내드라마</t>
-  </si>
-  <si>
-    <t>일렉트로니카</t>
   </si>
 </sst>
 </file>
@@ -2016,10 +1956,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E2" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2033,10 +1973,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E3" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2050,10 +1990,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E4" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2067,10 +2007,10 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E5" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2084,10 +2024,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E6" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2101,10 +2041,10 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E7" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2118,10 +2058,10 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E8" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2135,10 +2075,10 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E9" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2152,10 +2092,10 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E10" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2169,10 +2109,10 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E11" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2186,10 +2126,10 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E12" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2203,10 +2143,10 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E13" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2220,10 +2160,10 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E14" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2237,10 +2177,10 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E15" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2254,10 +2194,10 @@
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E16" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2271,10 +2211,10 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E17" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2288,10 +2228,10 @@
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E18" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2305,10 +2245,10 @@
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E19" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2322,10 +2262,10 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E20" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2339,10 +2279,10 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E21" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2356,10 +2296,10 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E22" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2373,10 +2313,10 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E23" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2390,10 +2330,10 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E24" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2407,10 +2347,10 @@
         <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="E25" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2424,10 +2364,10 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E26" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2441,10 +2381,10 @@
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E27" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2458,10 +2398,10 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E28" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2475,10 +2415,10 @@
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E29" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2492,10 +2432,10 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="E30" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2509,10 +2449,10 @@
         <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E31" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2526,10 +2466,10 @@
         <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E32" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2543,10 +2483,10 @@
         <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="E33" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2560,10 +2500,10 @@
         <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E34" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2577,10 +2517,10 @@
         <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="E35" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2594,10 +2534,10 @@
         <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="E36" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2611,10 +2551,10 @@
         <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="E37" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2628,10 +2568,10 @@
         <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="E38" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2645,10 +2585,10 @@
         <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="E39" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2662,10 +2602,10 @@
         <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="E40" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2679,10 +2619,10 @@
         <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="E41" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2696,10 +2636,10 @@
         <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E42" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2713,10 +2653,10 @@
         <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E43" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2730,10 +2670,10 @@
         <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E44" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2747,10 +2687,10 @@
         <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E45" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2764,10 +2704,10 @@
         <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="E46" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2781,10 +2721,10 @@
         <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="E47" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2798,10 +2738,10 @@
         <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E48" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2815,10 +2755,10 @@
         <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E49" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2832,10 +2772,10 @@
         <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E50" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2849,10 +2789,10 @@
         <v>54</v>
       </c>
       <c r="D51" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E51" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2866,10 +2806,10 @@
         <v>55</v>
       </c>
       <c r="D52" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="E52" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2883,10 +2823,10 @@
         <v>56</v>
       </c>
       <c r="D53" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="E53" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2900,10 +2840,10 @@
         <v>57</v>
       </c>
       <c r="D54" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E54" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2917,10 +2857,10 @@
         <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E55" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2934,10 +2874,10 @@
         <v>59</v>
       </c>
       <c r="D56" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E56" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2951,10 +2891,10 @@
         <v>60</v>
       </c>
       <c r="D57" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E57" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2968,10 +2908,10 @@
         <v>61</v>
       </c>
       <c r="D58" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E58" t="s">
-        <v>527</v>
+        <v>501</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2985,10 +2925,10 @@
         <v>62</v>
       </c>
       <c r="D59" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E59" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3002,10 +2942,10 @@
         <v>63</v>
       </c>
       <c r="D60" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="E60" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3019,10 +2959,10 @@
         <v>64</v>
       </c>
       <c r="D61" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
       <c r="E61" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3036,10 +2976,10 @@
         <v>65</v>
       </c>
       <c r="D62" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="E62" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3053,10 +2993,10 @@
         <v>66</v>
       </c>
       <c r="D63" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
       <c r="E63" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3070,10 +3010,10 @@
         <v>67</v>
       </c>
       <c r="D64" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="E64" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3087,10 +3027,10 @@
         <v>68</v>
       </c>
       <c r="D65" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="E65" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3104,10 +3044,10 @@
         <v>69</v>
       </c>
       <c r="D66" t="s">
-        <v>398</v>
+        <v>344</v>
       </c>
       <c r="E66" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3121,10 +3061,10 @@
         <v>70</v>
       </c>
       <c r="D67" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="E67" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3138,10 +3078,10 @@
         <v>71</v>
       </c>
       <c r="D68" t="s">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="E68" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3155,10 +3095,10 @@
         <v>72</v>
       </c>
       <c r="D69" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="E69" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3172,10 +3112,10 @@
         <v>73</v>
       </c>
       <c r="D70" t="s">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="E70" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3189,10 +3129,10 @@
         <v>74</v>
       </c>
       <c r="D71" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="E71" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3206,10 +3146,10 @@
         <v>75</v>
       </c>
       <c r="D72" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="E72" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3223,10 +3163,10 @@
         <v>76</v>
       </c>
       <c r="D73" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E73" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3240,10 +3180,10 @@
         <v>77</v>
       </c>
       <c r="D74" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="E74" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3257,10 +3197,10 @@
         <v>78</v>
       </c>
       <c r="D75" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="E75" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3274,10 +3214,10 @@
         <v>79</v>
       </c>
       <c r="D76" t="s">
-        <v>402</v>
+        <v>361</v>
       </c>
       <c r="E76" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3291,10 +3231,10 @@
         <v>80</v>
       </c>
       <c r="D77" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E77" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3308,10 +3248,10 @@
         <v>81</v>
       </c>
       <c r="D78" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E78" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3325,10 +3265,10 @@
         <v>82</v>
       </c>
       <c r="D79" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="E79" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3342,10 +3282,10 @@
         <v>83</v>
       </c>
       <c r="D80" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="E80" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3359,10 +3299,10 @@
         <v>84</v>
       </c>
       <c r="D81" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="E81" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3376,10 +3316,10 @@
         <v>85</v>
       </c>
       <c r="D82" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="E82" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3393,10 +3333,10 @@
         <v>86</v>
       </c>
       <c r="D83" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="E83" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3410,10 +3350,10 @@
         <v>87</v>
       </c>
       <c r="D84" t="s">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="E84" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3427,10 +3367,10 @@
         <v>88</v>
       </c>
       <c r="D85" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="E85" t="s">
-        <v>529</v>
+        <v>501</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3444,10 +3384,10 @@
         <v>89</v>
       </c>
       <c r="D86" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="E86" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3461,10 +3401,10 @@
         <v>90</v>
       </c>
       <c r="D87" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="E87" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3478,10 +3418,10 @@
         <v>91</v>
       </c>
       <c r="D88" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E88" t="s">
-        <v>524</v>
+        <v>501</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3495,10 +3435,10 @@
         <v>92</v>
       </c>
       <c r="D89" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="E89" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3512,10 +3452,10 @@
         <v>93</v>
       </c>
       <c r="D90" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="E90" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3529,10 +3469,10 @@
         <v>94</v>
       </c>
       <c r="D91" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="E91" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3546,10 +3486,10 @@
         <v>95</v>
       </c>
       <c r="D92" t="s">
-        <v>402</v>
+        <v>350</v>
       </c>
       <c r="E92" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3563,10 +3503,10 @@
         <v>96</v>
       </c>
       <c r="D93" t="s">
-        <v>412</v>
+        <v>344</v>
       </c>
       <c r="E93" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3580,10 +3520,10 @@
         <v>97</v>
       </c>
       <c r="D94" t="s">
-        <v>354</v>
+        <v>403</v>
       </c>
       <c r="E94" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3597,10 +3537,10 @@
         <v>98</v>
       </c>
       <c r="D95" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="E95" t="s">
-        <v>527</v>
+        <v>501</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3614,10 +3554,10 @@
         <v>99</v>
       </c>
       <c r="D96" t="s">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="E96" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3631,10 +3571,10 @@
         <v>100</v>
       </c>
       <c r="D97" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="E97" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3648,10 +3588,10 @@
         <v>101</v>
       </c>
       <c r="D98" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="E98" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3665,10 +3605,10 @@
         <v>102</v>
       </c>
       <c r="D99" t="s">
-        <v>416</v>
+        <v>360</v>
       </c>
       <c r="E99" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3682,10 +3622,10 @@
         <v>103</v>
       </c>
       <c r="D100" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="E100" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3699,10 +3639,10 @@
         <v>104</v>
       </c>
       <c r="D101" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E101" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3713,13 +3653,13 @@
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="D102" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="E102" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3730,13 +3670,13 @@
         <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="D103" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="E103" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3747,13 +3687,13 @@
         <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="E104" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3764,13 +3704,13 @@
         <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="D105" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E105" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3781,13 +3721,13 @@
         <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="D106" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E106" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3798,13 +3738,13 @@
         <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D107" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E107" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3815,13 +3755,13 @@
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="D108" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="E108" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3832,13 +3772,13 @@
         <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="D109" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="E109" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3849,13 +3789,13 @@
         <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D110" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="E110" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3866,13 +3806,13 @@
         <v>10</v>
       </c>
       <c r="C111" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="D111" t="s">
-        <v>410</v>
+        <v>356</v>
       </c>
       <c r="E111" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3883,13 +3823,13 @@
         <v>11</v>
       </c>
       <c r="C112" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="D112" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="E112" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3903,10 +3843,10 @@
         <v>108</v>
       </c>
       <c r="D113" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="E113" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3920,10 +3860,10 @@
         <v>109</v>
       </c>
       <c r="D114" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="E114" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3934,13 +3874,13 @@
         <v>14</v>
       </c>
       <c r="C115" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="D115" t="s">
         <v>384</v>
       </c>
       <c r="E115" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3951,13 +3891,13 @@
         <v>15</v>
       </c>
       <c r="C116" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D116" t="s">
-        <v>421</v>
+        <v>346</v>
       </c>
       <c r="E116" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3968,13 +3908,13 @@
         <v>16</v>
       </c>
       <c r="C117" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D117" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="E117" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3985,13 +3925,13 @@
         <v>17</v>
       </c>
       <c r="C118" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="D118" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="E118" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4005,10 +3945,10 @@
         <v>113</v>
       </c>
       <c r="D119" t="s">
-        <v>422</v>
+        <v>369</v>
       </c>
       <c r="E119" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4019,13 +3959,13 @@
         <v>19</v>
       </c>
       <c r="C120" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="D120" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="E120" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4036,13 +3976,13 @@
         <v>20</v>
       </c>
       <c r="C121" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="D121" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="E121" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4056,10 +3996,10 @@
         <v>115</v>
       </c>
       <c r="D122" t="s">
-        <v>357</v>
+        <v>413</v>
       </c>
       <c r="E122" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4070,13 +4010,13 @@
         <v>22</v>
       </c>
       <c r="C123" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="D123" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="E123" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4087,13 +4027,13 @@
         <v>23</v>
       </c>
       <c r="C124" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D124" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="E124" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4104,13 +4044,13 @@
         <v>24</v>
       </c>
       <c r="C125" t="s">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="D125" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="E125" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4121,13 +4061,13 @@
         <v>25</v>
       </c>
       <c r="C126" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="D126" t="s">
-        <v>424</v>
+        <v>352</v>
       </c>
       <c r="E126" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4138,13 +4078,13 @@
         <v>26</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="D127" t="s">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="E127" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4155,13 +4095,13 @@
         <v>27</v>
       </c>
       <c r="C128" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="D128" t="s">
-        <v>356</v>
+        <v>415</v>
       </c>
       <c r="E128" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4172,13 +4112,13 @@
         <v>28</v>
       </c>
       <c r="C129" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D129" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="E129" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4189,13 +4129,13 @@
         <v>29</v>
       </c>
       <c r="C130" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D130" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E130" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4206,13 +4146,13 @@
         <v>30</v>
       </c>
       <c r="C131" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="D131" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="E131" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4223,13 +4163,13 @@
         <v>31</v>
       </c>
       <c r="C132" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="D132" t="s">
-        <v>423</v>
+        <v>376</v>
       </c>
       <c r="E132" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4240,13 +4180,13 @@
         <v>32</v>
       </c>
       <c r="C133" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="D133" t="s">
-        <v>403</v>
+        <v>360</v>
       </c>
       <c r="E133" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4257,13 +4197,13 @@
         <v>33</v>
       </c>
       <c r="C134" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="D134" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="E134" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4274,13 +4214,13 @@
         <v>34</v>
       </c>
       <c r="C135" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="D135" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="E135" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4291,13 +4231,13 @@
         <v>35</v>
       </c>
       <c r="C136" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="D136" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E136" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4308,13 +4248,13 @@
         <v>36</v>
       </c>
       <c r="C137" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="D137" t="s">
-        <v>418</v>
+        <v>350</v>
       </c>
       <c r="E137" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4325,13 +4265,13 @@
         <v>37</v>
       </c>
       <c r="C138" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D138" t="s">
-        <v>426</v>
+        <v>350</v>
       </c>
       <c r="E138" t="s">
-        <v>530</v>
+        <v>500</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4342,13 +4282,13 @@
         <v>38</v>
       </c>
       <c r="C139" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="D139" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E139" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4362,10 +4302,10 @@
         <v>126</v>
       </c>
       <c r="D140" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="E140" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4379,10 +4319,10 @@
         <v>127</v>
       </c>
       <c r="D141" t="s">
-        <v>354</v>
+        <v>418</v>
       </c>
       <c r="E141" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4396,10 +4336,10 @@
         <v>128</v>
       </c>
       <c r="D142" t="s">
-        <v>363</v>
+        <v>419</v>
       </c>
       <c r="E142" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4410,13 +4350,13 @@
         <v>42</v>
       </c>
       <c r="C143" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="D143" t="s">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="E143" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4427,13 +4367,13 @@
         <v>43</v>
       </c>
       <c r="C144" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D144" t="s">
-        <v>428</v>
+        <v>354</v>
       </c>
       <c r="E144" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4444,13 +4384,13 @@
         <v>44</v>
       </c>
       <c r="C145" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D145" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="E145" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4461,13 +4401,13 @@
         <v>45</v>
       </c>
       <c r="C146" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D146" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="E146" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4478,13 +4418,13 @@
         <v>46</v>
       </c>
       <c r="C147" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="D147" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="E147" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4498,10 +4438,10 @@
         <v>133</v>
       </c>
       <c r="D148" t="s">
-        <v>358</v>
+        <v>422</v>
       </c>
       <c r="E148" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4515,10 +4455,10 @@
         <v>134</v>
       </c>
       <c r="D149" t="s">
-        <v>431</v>
+        <v>387</v>
       </c>
       <c r="E149" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4532,10 +4472,10 @@
         <v>135</v>
       </c>
       <c r="D150" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E150" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4549,10 +4489,10 @@
         <v>136</v>
       </c>
       <c r="D151" t="s">
-        <v>366</v>
+        <v>424</v>
       </c>
       <c r="E151" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4566,10 +4506,10 @@
         <v>137</v>
       </c>
       <c r="D152" t="s">
-        <v>433</v>
+        <v>369</v>
       </c>
       <c r="E152" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4583,10 +4523,10 @@
         <v>138</v>
       </c>
       <c r="D153" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="E153" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4600,10 +4540,10 @@
         <v>139</v>
       </c>
       <c r="D154" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="E154" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4617,10 +4557,10 @@
         <v>140</v>
       </c>
       <c r="D155" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="E155" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4631,13 +4571,13 @@
         <v>55</v>
       </c>
       <c r="C156" t="s">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c r="D156" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E156" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4648,13 +4588,13 @@
         <v>56</v>
       </c>
       <c r="C157" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D157" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="E157" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4665,13 +4605,13 @@
         <v>57</v>
       </c>
       <c r="C158" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D158" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="E158" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4682,13 +4622,13 @@
         <v>58</v>
       </c>
       <c r="C159" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D159" t="s">
-        <v>437</v>
+        <v>347</v>
       </c>
       <c r="E159" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4699,13 +4639,13 @@
         <v>59</v>
       </c>
       <c r="C160" t="s">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="D160" t="s">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="E160" t="s">
-        <v>527</v>
+        <v>504</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4716,13 +4656,13 @@
         <v>60</v>
       </c>
       <c r="C161" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="D161" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="E161" t="s">
-        <v>529</v>
+        <v>500</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4733,13 +4673,13 @@
         <v>61</v>
       </c>
       <c r="C162" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D162" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="E162" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4750,13 +4690,13 @@
         <v>62</v>
       </c>
       <c r="C163" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="D163" t="s">
-        <v>419</v>
+        <v>374</v>
       </c>
       <c r="E163" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4767,13 +4707,13 @@
         <v>63</v>
       </c>
       <c r="C164" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="D164" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="E164" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4784,13 +4724,13 @@
         <v>64</v>
       </c>
       <c r="C165" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D165" t="s">
-        <v>351</v>
+        <v>430</v>
       </c>
       <c r="E165" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4801,13 +4741,13 @@
         <v>65</v>
       </c>
       <c r="C166" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D166" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="E166" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4818,13 +4758,13 @@
         <v>66</v>
       </c>
       <c r="C167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D167" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="E167" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4835,13 +4775,13 @@
         <v>67</v>
       </c>
       <c r="C168" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D168" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="E168" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4852,13 +4792,13 @@
         <v>68</v>
       </c>
       <c r="C169" t="s">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="D169" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="E169" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4872,10 +4812,10 @@
         <v>152</v>
       </c>
       <c r="D170" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="E170" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4889,10 +4829,10 @@
         <v>153</v>
       </c>
       <c r="D171" t="s">
-        <v>442</v>
+        <v>413</v>
       </c>
       <c r="E171" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4906,10 +4846,10 @@
         <v>154</v>
       </c>
       <c r="D172" t="s">
-        <v>438</v>
+        <v>350</v>
       </c>
       <c r="E172" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4923,10 +4863,10 @@
         <v>155</v>
       </c>
       <c r="D173" t="s">
-        <v>443</v>
+        <v>347</v>
       </c>
       <c r="E173" t="s">
-        <v>527</v>
+        <v>504</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4940,10 +4880,10 @@
         <v>156</v>
       </c>
       <c r="D174" t="s">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="E174" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4957,10 +4897,10 @@
         <v>157</v>
       </c>
       <c r="D175" t="s">
-        <v>444</v>
+        <v>348</v>
       </c>
       <c r="E175" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4974,10 +4914,10 @@
         <v>158</v>
       </c>
       <c r="D176" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="E176" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4991,10 +4931,10 @@
         <v>159</v>
       </c>
       <c r="D177" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="E177" t="s">
-        <v>526</v>
+        <v>501</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5005,13 +4945,13 @@
         <v>77</v>
       </c>
       <c r="C178" t="s">
-        <v>160</v>
+        <v>33</v>
       </c>
       <c r="D178" t="s">
-        <v>423</v>
+        <v>347</v>
       </c>
       <c r="E178" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5022,13 +4962,13 @@
         <v>78</v>
       </c>
       <c r="C179" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D179" t="s">
-        <v>354</v>
+        <v>423</v>
       </c>
       <c r="E179" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5039,13 +4979,13 @@
         <v>79</v>
       </c>
       <c r="C180" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D180" t="s">
-        <v>351</v>
+        <v>436</v>
       </c>
       <c r="E180" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5056,13 +4996,13 @@
         <v>80</v>
       </c>
       <c r="C181" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="D181" t="s">
-        <v>417</v>
+        <v>348</v>
       </c>
       <c r="E181" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5073,13 +5013,13 @@
         <v>81</v>
       </c>
       <c r="C182" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D182" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="E182" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5090,13 +5030,13 @@
         <v>82</v>
       </c>
       <c r="C183" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D183" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="E183" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5107,13 +5047,13 @@
         <v>83</v>
       </c>
       <c r="C184" t="s">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="D184" t="s">
-        <v>447</v>
+        <v>395</v>
       </c>
       <c r="E184" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5124,13 +5064,13 @@
         <v>84</v>
       </c>
       <c r="C185" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D185" t="s">
-        <v>448</v>
+        <v>413</v>
       </c>
       <c r="E185" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5141,13 +5081,13 @@
         <v>85</v>
       </c>
       <c r="C186" t="s">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="D186" t="s">
-        <v>351</v>
+        <v>437</v>
       </c>
       <c r="E186" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5158,13 +5098,13 @@
         <v>86</v>
       </c>
       <c r="C187" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D187" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="E187" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5175,13 +5115,13 @@
         <v>87</v>
       </c>
       <c r="C188" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D188" t="s">
-        <v>449</v>
+        <v>385</v>
       </c>
       <c r="E188" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5192,13 +5132,13 @@
         <v>88</v>
       </c>
       <c r="C189" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="D189" t="s">
-        <v>352</v>
+        <v>439</v>
       </c>
       <c r="E189" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5209,13 +5149,13 @@
         <v>89</v>
       </c>
       <c r="C190" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D190" t="s">
-        <v>399</v>
+        <v>440</v>
       </c>
       <c r="E190" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5226,13 +5166,13 @@
         <v>90</v>
       </c>
       <c r="C191" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D191" t="s">
-        <v>412</v>
+        <v>350</v>
       </c>
       <c r="E191" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5243,13 +5183,13 @@
         <v>91</v>
       </c>
       <c r="C192" t="s">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="D192" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="E192" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5260,13 +5200,13 @@
         <v>92</v>
       </c>
       <c r="C193" t="s">
-        <v>172</v>
+        <v>87</v>
       </c>
       <c r="D193" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="E193" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5277,13 +5217,13 @@
         <v>93</v>
       </c>
       <c r="C194" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D194" t="s">
-        <v>450</v>
+        <v>394</v>
       </c>
       <c r="E194" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5294,13 +5234,13 @@
         <v>94</v>
       </c>
       <c r="C195" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D195" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="E195" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5311,13 +5251,13 @@
         <v>95</v>
       </c>
       <c r="C196" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D196" t="s">
-        <v>396</v>
+        <v>428</v>
       </c>
       <c r="E196" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5328,13 +5268,13 @@
         <v>96</v>
       </c>
       <c r="C197" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>452</v>
+        <v>347</v>
       </c>
       <c r="E197" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5345,13 +5285,13 @@
         <v>97</v>
       </c>
       <c r="C198" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D198" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="E198" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5362,13 +5302,13 @@
         <v>98</v>
       </c>
       <c r="C199" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D199" t="s">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="E199" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5379,13 +5319,13 @@
         <v>99</v>
       </c>
       <c r="C200" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D200" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="E200" t="s">
-        <v>526</v>
+        <v>500</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5396,13 +5336,13 @@
         <v>100</v>
       </c>
       <c r="C201" t="s">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="D201" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="E201" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5413,13 +5353,13 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D202" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="E202" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5430,13 +5370,13 @@
         <v>2</v>
       </c>
       <c r="C203" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D203" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="E203" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5447,13 +5387,13 @@
         <v>3</v>
       </c>
       <c r="C204" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D204" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E204" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5464,13 +5404,13 @@
         <v>4</v>
       </c>
       <c r="C205" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D205" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="E205" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5481,13 +5421,13 @@
         <v>5</v>
       </c>
       <c r="C206" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D206" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="E206" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5498,13 +5438,13 @@
         <v>6</v>
       </c>
       <c r="C207" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D207" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E207" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5515,13 +5455,13 @@
         <v>7</v>
       </c>
       <c r="C208" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D208" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="E208" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5532,13 +5472,13 @@
         <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D209" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="E209" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5549,13 +5489,13 @@
         <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D210" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="E210" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5566,13 +5506,13 @@
         <v>10</v>
       </c>
       <c r="C211" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D211" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E211" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5583,13 +5523,13 @@
         <v>11</v>
       </c>
       <c r="C212" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D212" t="s">
-        <v>457</v>
+        <v>431</v>
       </c>
       <c r="E212" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5600,13 +5540,13 @@
         <v>12</v>
       </c>
       <c r="C213" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D213" t="s">
-        <v>443</v>
+        <v>365</v>
       </c>
       <c r="E213" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5617,13 +5557,13 @@
         <v>13</v>
       </c>
       <c r="C214" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D214" t="s">
-        <v>372</v>
+        <v>447</v>
       </c>
       <c r="E214" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5634,13 +5574,13 @@
         <v>14</v>
       </c>
       <c r="C215" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D215" t="s">
-        <v>458</v>
+        <v>409</v>
       </c>
       <c r="E215" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5651,13 +5591,13 @@
         <v>15</v>
       </c>
       <c r="C216" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D216" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="E216" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5668,13 +5608,13 @@
         <v>16</v>
       </c>
       <c r="C217" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D217" t="s">
-        <v>419</v>
+        <v>350</v>
       </c>
       <c r="E217" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5685,13 +5625,13 @@
         <v>17</v>
       </c>
       <c r="C218" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D218" t="s">
-        <v>460</v>
+        <v>391</v>
       </c>
       <c r="E218" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5702,13 +5642,13 @@
         <v>18</v>
       </c>
       <c r="C219" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D219" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E219" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5719,13 +5659,13 @@
         <v>19</v>
       </c>
       <c r="C220" t="s">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c r="D220" t="s">
-        <v>403</v>
+        <v>350</v>
       </c>
       <c r="E220" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5736,13 +5676,13 @@
         <v>20</v>
       </c>
       <c r="C221" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="D221" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E221" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5753,13 +5693,13 @@
         <v>21</v>
       </c>
       <c r="C222" t="s">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="D222" t="s">
-        <v>354</v>
+        <v>449</v>
       </c>
       <c r="E222" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5770,13 +5710,13 @@
         <v>22</v>
       </c>
       <c r="C223" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D223" t="s">
-        <v>399</v>
+        <v>347</v>
       </c>
       <c r="E223" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5787,13 +5727,13 @@
         <v>23</v>
       </c>
       <c r="C224" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="D224" t="s">
-        <v>461</v>
+        <v>413</v>
       </c>
       <c r="E224" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5804,13 +5744,13 @@
         <v>24</v>
       </c>
       <c r="C225" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="D225" t="s">
-        <v>351</v>
+        <v>427</v>
       </c>
       <c r="E225" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5821,13 +5761,13 @@
         <v>25</v>
       </c>
       <c r="C226" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="D226" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="E226" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5838,13 +5778,13 @@
         <v>26</v>
       </c>
       <c r="C227" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D227" t="s">
-        <v>439</v>
+        <v>387</v>
       </c>
       <c r="E227" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5855,13 +5795,13 @@
         <v>27</v>
       </c>
       <c r="C228" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D228" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="E228" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5872,13 +5812,13 @@
         <v>28</v>
       </c>
       <c r="C229" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D229" t="s">
-        <v>399</v>
+        <v>439</v>
       </c>
       <c r="E229" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5889,13 +5829,13 @@
         <v>29</v>
       </c>
       <c r="C230" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D230" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="E230" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5906,13 +5846,13 @@
         <v>30</v>
       </c>
       <c r="C231" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D231" t="s">
-        <v>452</v>
+        <v>351</v>
       </c>
       <c r="E231" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5923,13 +5863,13 @@
         <v>31</v>
       </c>
       <c r="C232" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D232" t="s">
-        <v>464</v>
+        <v>438</v>
       </c>
       <c r="E232" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5940,13 +5880,13 @@
         <v>32</v>
       </c>
       <c r="C233" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D233" t="s">
-        <v>465</v>
+        <v>354</v>
       </c>
       <c r="E233" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5957,13 +5897,13 @@
         <v>33</v>
       </c>
       <c r="C234" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D234" t="s">
-        <v>355</v>
+        <v>453</v>
       </c>
       <c r="E234" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5974,13 +5914,13 @@
         <v>34</v>
       </c>
       <c r="C235" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D235" t="s">
-        <v>451</v>
+        <v>387</v>
       </c>
       <c r="E235" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5991,13 +5931,13 @@
         <v>35</v>
       </c>
       <c r="C236" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D236" t="s">
-        <v>358</v>
+        <v>454</v>
       </c>
       <c r="E236" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6008,13 +5948,13 @@
         <v>36</v>
       </c>
       <c r="C237" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D237" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="E237" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6025,13 +5965,13 @@
         <v>37</v>
       </c>
       <c r="C238" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D238" t="s">
-        <v>399</v>
+        <v>455</v>
       </c>
       <c r="E238" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6042,13 +5982,13 @@
         <v>38</v>
       </c>
       <c r="C239" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="D239" t="s">
-        <v>467</v>
+        <v>397</v>
       </c>
       <c r="E239" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6059,13 +5999,13 @@
         <v>39</v>
       </c>
       <c r="C240" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D240" t="s">
-        <v>466</v>
+        <v>369</v>
       </c>
       <c r="E240" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6076,13 +6016,13 @@
         <v>40</v>
       </c>
       <c r="C241" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D241" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="E241" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6093,13 +6033,13 @@
         <v>41</v>
       </c>
       <c r="C242" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="D242" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="E242" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6110,13 +6050,13 @@
         <v>42</v>
       </c>
       <c r="C243" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D243" t="s">
-        <v>378</v>
+        <v>435</v>
       </c>
       <c r="E243" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6127,13 +6067,13 @@
         <v>43</v>
       </c>
       <c r="C244" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D244" t="s">
-        <v>469</v>
+        <v>378</v>
       </c>
       <c r="E244" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6144,13 +6084,13 @@
         <v>44</v>
       </c>
       <c r="C245" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D245" t="s">
-        <v>470</v>
+        <v>423</v>
       </c>
       <c r="E245" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6161,13 +6101,13 @@
         <v>45</v>
       </c>
       <c r="C246" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D246" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="E246" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -6178,13 +6118,13 @@
         <v>46</v>
       </c>
       <c r="C247" t="s">
-        <v>217</v>
+        <v>143</v>
       </c>
       <c r="D247" t="s">
-        <v>389</v>
+        <v>347</v>
       </c>
       <c r="E247" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -6195,13 +6135,13 @@
         <v>47</v>
       </c>
       <c r="C248" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D248" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="E248" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6212,13 +6152,13 @@
         <v>48</v>
       </c>
       <c r="C249" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D249" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="E249" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6229,13 +6169,13 @@
         <v>49</v>
       </c>
       <c r="C250" t="s">
-        <v>148</v>
+        <v>218</v>
       </c>
       <c r="D250" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="E250" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6246,13 +6186,13 @@
         <v>50</v>
       </c>
       <c r="C251" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D251" t="s">
-        <v>471</v>
+        <v>383</v>
       </c>
       <c r="E251" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6263,13 +6203,13 @@
         <v>51</v>
       </c>
       <c r="C252" t="s">
-        <v>221</v>
+        <v>150</v>
       </c>
       <c r="D252" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="E252" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6280,13 +6220,13 @@
         <v>52</v>
       </c>
       <c r="C253" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D253" t="s">
-        <v>372</v>
+        <v>431</v>
       </c>
       <c r="E253" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6297,13 +6237,13 @@
         <v>53</v>
       </c>
       <c r="C254" t="s">
-        <v>223</v>
+        <v>102</v>
       </c>
       <c r="D254" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="E254" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -6314,13 +6254,13 @@
         <v>54</v>
       </c>
       <c r="C255" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="D255" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="E255" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -6331,13 +6271,13 @@
         <v>55</v>
       </c>
       <c r="C256" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D256" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="E256" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -6348,13 +6288,13 @@
         <v>56</v>
       </c>
       <c r="C257" t="s">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="D257" t="s">
-        <v>366</v>
+        <v>459</v>
       </c>
       <c r="E257" t="s">
-        <v>526</v>
+        <v>500</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -6365,13 +6305,13 @@
         <v>57</v>
       </c>
       <c r="C258" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D258" t="s">
-        <v>448</v>
+        <v>351</v>
       </c>
       <c r="E258" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6382,13 +6322,13 @@
         <v>58</v>
       </c>
       <c r="C259" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D259" t="s">
-        <v>466</v>
+        <v>383</v>
       </c>
       <c r="E259" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -6399,13 +6339,13 @@
         <v>59</v>
       </c>
       <c r="C260" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D260" t="s">
-        <v>472</v>
+        <v>351</v>
       </c>
       <c r="E260" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -6416,13 +6356,13 @@
         <v>60</v>
       </c>
       <c r="C261" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D261" t="s">
-        <v>355</v>
+        <v>460</v>
       </c>
       <c r="E261" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -6433,13 +6373,13 @@
         <v>61</v>
       </c>
       <c r="C262" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D262" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="E262" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -6450,13 +6390,13 @@
         <v>62</v>
       </c>
       <c r="C263" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D263" t="s">
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="E263" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6467,13 +6407,13 @@
         <v>63</v>
       </c>
       <c r="C264" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D264" t="s">
-        <v>473</v>
+        <v>354</v>
       </c>
       <c r="E264" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6484,13 +6424,13 @@
         <v>64</v>
       </c>
       <c r="C265" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D265" t="s">
-        <v>354</v>
+        <v>428</v>
       </c>
       <c r="E265" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6501,13 +6441,13 @@
         <v>65</v>
       </c>
       <c r="C266" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D266" t="s">
-        <v>399</v>
+        <v>461</v>
       </c>
       <c r="E266" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6518,13 +6458,13 @@
         <v>66</v>
       </c>
       <c r="C267" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D267" t="s">
-        <v>358</v>
+        <v>462</v>
       </c>
       <c r="E267" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6535,13 +6475,13 @@
         <v>67</v>
       </c>
       <c r="C268" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D268" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="E268" t="s">
-        <v>532</v>
+        <v>500</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -6552,13 +6492,13 @@
         <v>68</v>
       </c>
       <c r="C269" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D269" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E269" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6569,13 +6509,13 @@
         <v>69</v>
       </c>
       <c r="C270" t="s">
-        <v>237</v>
+        <v>124</v>
       </c>
       <c r="D270" t="s">
-        <v>474</v>
+        <v>350</v>
       </c>
       <c r="E270" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -6586,13 +6526,13 @@
         <v>70</v>
       </c>
       <c r="C271" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D271" t="s">
-        <v>475</v>
+        <v>343</v>
       </c>
       <c r="E271" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6603,13 +6543,13 @@
         <v>71</v>
       </c>
       <c r="C272" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D272" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="E272" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -6620,13 +6560,13 @@
         <v>72</v>
       </c>
       <c r="C273" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D273" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E273" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -6637,13 +6577,13 @@
         <v>73</v>
       </c>
       <c r="C274" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="D274" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="E274" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6654,13 +6594,13 @@
         <v>74</v>
       </c>
       <c r="C275" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D275" t="s">
-        <v>347</v>
+        <v>463</v>
       </c>
       <c r="E275" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6671,13 +6611,13 @@
         <v>75</v>
       </c>
       <c r="C276" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D276" t="s">
-        <v>456</v>
+        <v>369</v>
       </c>
       <c r="E276" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -6688,13 +6628,13 @@
         <v>76</v>
       </c>
       <c r="C277" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D277" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="E277" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6705,13 +6645,13 @@
         <v>77</v>
       </c>
       <c r="C278" t="s">
-        <v>56</v>
+        <v>242</v>
       </c>
       <c r="D278" t="s">
-        <v>366</v>
+        <v>428</v>
       </c>
       <c r="E278" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6722,13 +6662,13 @@
         <v>78</v>
       </c>
       <c r="C279" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D279" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="E279" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -6739,13 +6679,13 @@
         <v>79</v>
       </c>
       <c r="C280" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D280" t="s">
-        <v>409</v>
+        <v>351</v>
       </c>
       <c r="E280" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -6756,13 +6696,13 @@
         <v>80</v>
       </c>
       <c r="C281" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D281" t="s">
-        <v>378</v>
+        <v>465</v>
       </c>
       <c r="E281" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -6773,13 +6713,13 @@
         <v>81</v>
       </c>
       <c r="C282" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D282" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E282" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -6790,13 +6730,13 @@
         <v>82</v>
       </c>
       <c r="C283" t="s">
-        <v>248</v>
+        <v>165</v>
       </c>
       <c r="D283" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E283" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -6807,13 +6747,13 @@
         <v>83</v>
       </c>
       <c r="C284" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D284" t="s">
-        <v>477</v>
+        <v>402</v>
       </c>
       <c r="E284" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -6824,13 +6764,13 @@
         <v>84</v>
       </c>
       <c r="C285" t="s">
-        <v>250</v>
+        <v>144</v>
       </c>
       <c r="D285" t="s">
-        <v>355</v>
+        <v>427</v>
       </c>
       <c r="E285" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -6841,13 +6781,13 @@
         <v>85</v>
       </c>
       <c r="C286" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D286" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="E286" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -6858,13 +6798,13 @@
         <v>86</v>
       </c>
       <c r="C287" t="s">
-        <v>252</v>
+        <v>132</v>
       </c>
       <c r="D287" t="s">
-        <v>479</v>
+        <v>421</v>
       </c>
       <c r="E287" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -6875,13 +6815,13 @@
         <v>87</v>
       </c>
       <c r="C288" t="s">
-        <v>173</v>
+        <v>249</v>
       </c>
       <c r="D288" t="s">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="E288" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -6892,13 +6832,13 @@
         <v>88</v>
       </c>
       <c r="C289" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D289" t="s">
-        <v>480</v>
+        <v>431</v>
       </c>
       <c r="E289" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -6909,13 +6849,13 @@
         <v>89</v>
       </c>
       <c r="C290" t="s">
-        <v>149</v>
+        <v>251</v>
       </c>
       <c r="D290" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="E290" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -6926,13 +6866,13 @@
         <v>90</v>
       </c>
       <c r="C291" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D291" t="s">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="E291" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -6943,13 +6883,13 @@
         <v>91</v>
       </c>
       <c r="C292" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D292" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="E292" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -6960,13 +6900,13 @@
         <v>92</v>
       </c>
       <c r="C293" t="s">
-        <v>135</v>
+        <v>254</v>
       </c>
       <c r="D293" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E293" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -6977,13 +6917,13 @@
         <v>93</v>
       </c>
       <c r="C294" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D294" t="s">
-        <v>354</v>
+        <v>469</v>
       </c>
       <c r="E294" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -6994,13 +6934,13 @@
         <v>94</v>
       </c>
       <c r="C295" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D295" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="E295" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -7011,13 +6951,13 @@
         <v>95</v>
       </c>
       <c r="C296" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D296" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="E296" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -7028,13 +6968,13 @@
         <v>96</v>
       </c>
       <c r="C297" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D297" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="E297" t="s">
-        <v>526</v>
+        <v>500</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -7045,13 +6985,13 @@
         <v>97</v>
       </c>
       <c r="C298" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D298" t="s">
-        <v>483</v>
+        <v>440</v>
       </c>
       <c r="E298" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -7062,13 +7002,13 @@
         <v>98</v>
       </c>
       <c r="C299" t="s">
-        <v>261</v>
+        <v>134</v>
       </c>
       <c r="D299" t="s">
-        <v>443</v>
+        <v>387</v>
       </c>
       <c r="E299" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -7079,13 +7019,13 @@
         <v>99</v>
       </c>
       <c r="C300" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D300" t="s">
-        <v>484</v>
+        <v>430</v>
       </c>
       <c r="E300" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -7096,13 +7036,13 @@
         <v>100</v>
       </c>
       <c r="C301" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D301" t="s">
-        <v>485</v>
+        <v>383</v>
       </c>
       <c r="E301" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -7113,13 +7053,13 @@
         <v>1</v>
       </c>
       <c r="C302" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D302" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="E302" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -7130,13 +7070,13 @@
         <v>2</v>
       </c>
       <c r="C303" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D303" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E303" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -7147,13 +7087,13 @@
         <v>3</v>
       </c>
       <c r="C304" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D304" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="E304" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -7164,13 +7104,13 @@
         <v>4</v>
       </c>
       <c r="C305" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D305" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E305" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -7181,13 +7121,13 @@
         <v>5</v>
       </c>
       <c r="C306" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="D306" t="s">
-        <v>464</v>
+        <v>356</v>
       </c>
       <c r="E306" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -7198,13 +7138,13 @@
         <v>6</v>
       </c>
       <c r="C307" t="s">
-        <v>265</v>
+        <v>212</v>
       </c>
       <c r="D307" t="s">
-        <v>360</v>
+        <v>435</v>
       </c>
       <c r="E307" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -7215,13 +7155,13 @@
         <v>7</v>
       </c>
       <c r="C308" t="s">
-        <v>216</v>
+        <v>264</v>
       </c>
       <c r="D308" t="s">
-        <v>448</v>
+        <v>347</v>
       </c>
       <c r="E308" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -7232,13 +7172,13 @@
         <v>8</v>
       </c>
       <c r="C309" t="s">
-        <v>266</v>
+        <v>204</v>
       </c>
       <c r="D309" t="s">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="E309" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -7249,13 +7189,13 @@
         <v>9</v>
       </c>
       <c r="C310" t="s">
-        <v>208</v>
+        <v>265</v>
       </c>
       <c r="D310" t="s">
-        <v>416</v>
+        <v>471</v>
       </c>
       <c r="E310" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -7266,13 +7206,13 @@
         <v>10</v>
       </c>
       <c r="C311" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D311" t="s">
-        <v>486</v>
+        <v>387</v>
       </c>
       <c r="E311" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -7283,13 +7223,13 @@
         <v>11</v>
       </c>
       <c r="C312" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="D312" t="s">
-        <v>399</v>
+        <v>428</v>
       </c>
       <c r="E312" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -7300,13 +7240,13 @@
         <v>12</v>
       </c>
       <c r="C313" t="s">
-        <v>248</v>
+        <v>38</v>
       </c>
       <c r="D313" t="s">
-        <v>440</v>
+        <v>350</v>
       </c>
       <c r="E313" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -7317,13 +7257,13 @@
         <v>13</v>
       </c>
       <c r="C314" t="s">
-        <v>42</v>
+        <v>267</v>
       </c>
       <c r="D314" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E314" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -7334,13 +7274,13 @@
         <v>14</v>
       </c>
       <c r="C315" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D315" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="E315" t="s">
-        <v>534</v>
+        <v>508</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -7351,13 +7291,13 @@
         <v>15</v>
       </c>
       <c r="C316" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D316" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E316" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -7368,13 +7308,13 @@
         <v>16</v>
       </c>
       <c r="C317" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D317" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E317" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -7385,13 +7325,13 @@
         <v>17</v>
       </c>
       <c r="C318" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D318" t="s">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="E318" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -7402,13 +7342,13 @@
         <v>18</v>
       </c>
       <c r="C319" t="s">
-        <v>273</v>
+        <v>183</v>
       </c>
       <c r="D319" t="s">
-        <v>351</v>
+        <v>431</v>
       </c>
       <c r="E319" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -7419,13 +7359,13 @@
         <v>19</v>
       </c>
       <c r="C320" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="D320" t="s">
-        <v>443</v>
+        <v>354</v>
       </c>
       <c r="E320" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -7436,13 +7376,13 @@
         <v>20</v>
       </c>
       <c r="C321" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="D321" t="s">
-        <v>358</v>
+        <v>472</v>
       </c>
       <c r="E321" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -7453,13 +7393,13 @@
         <v>21</v>
       </c>
       <c r="C322" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D322" t="s">
-        <v>487</v>
+        <v>449</v>
       </c>
       <c r="E322" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -7470,13 +7410,13 @@
         <v>22</v>
       </c>
       <c r="C323" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D323" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
       <c r="E323" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -7487,13 +7427,13 @@
         <v>23</v>
       </c>
       <c r="C324" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D324" t="s">
-        <v>448</v>
+        <v>354</v>
       </c>
       <c r="E324" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -7504,13 +7444,13 @@
         <v>24</v>
       </c>
       <c r="C325" t="s">
-        <v>277</v>
+        <v>224</v>
       </c>
       <c r="D325" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E325" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -7521,13 +7461,13 @@
         <v>25</v>
       </c>
       <c r="C326" t="s">
-        <v>228</v>
+        <v>276</v>
       </c>
       <c r="D326" t="s">
-        <v>355</v>
+        <v>473</v>
       </c>
       <c r="E326" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -7538,13 +7478,13 @@
         <v>26</v>
       </c>
       <c r="C327" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D327" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="E327" t="s">
-        <v>535</v>
+        <v>505</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -7555,13 +7495,13 @@
         <v>27</v>
       </c>
       <c r="C328" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D328" t="s">
-        <v>489</v>
+        <v>387</v>
       </c>
       <c r="E328" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -7572,13 +7512,13 @@
         <v>28</v>
       </c>
       <c r="C329" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D329" t="s">
-        <v>399</v>
+        <v>369</v>
       </c>
       <c r="E329" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -7589,13 +7529,13 @@
         <v>29</v>
       </c>
       <c r="C330" t="s">
-        <v>281</v>
+        <v>223</v>
       </c>
       <c r="D330" t="s">
-        <v>378</v>
+        <v>459</v>
       </c>
       <c r="E330" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -7606,13 +7546,13 @@
         <v>30</v>
       </c>
       <c r="C331" t="s">
-        <v>227</v>
+        <v>280</v>
       </c>
       <c r="D331" t="s">
-        <v>472</v>
+        <v>351</v>
       </c>
       <c r="E331" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -7623,13 +7563,13 @@
         <v>31</v>
       </c>
       <c r="C332" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D332" t="s">
-        <v>355</v>
+        <v>475</v>
       </c>
       <c r="E332" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -7640,13 +7580,13 @@
         <v>32</v>
       </c>
       <c r="C333" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D333" t="s">
-        <v>490</v>
+        <v>387</v>
       </c>
       <c r="E333" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -7657,13 +7597,13 @@
         <v>33</v>
       </c>
       <c r="C334" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D334" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="E334" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -7674,13 +7614,13 @@
         <v>34</v>
       </c>
       <c r="C335" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D335" t="s">
-        <v>372</v>
+        <v>476</v>
       </c>
       <c r="E335" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -7691,13 +7631,13 @@
         <v>35</v>
       </c>
       <c r="C336" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D336" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="E336" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -7708,13 +7648,13 @@
         <v>36</v>
       </c>
       <c r="C337" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D337" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="E337" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -7725,13 +7665,13 @@
         <v>37</v>
       </c>
       <c r="C338" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D338" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="E338" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -7742,13 +7682,13 @@
         <v>38</v>
       </c>
       <c r="C339" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="D339" t="s">
-        <v>494</v>
+        <v>383</v>
       </c>
       <c r="E339" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -7759,13 +7699,13 @@
         <v>39</v>
       </c>
       <c r="C340" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D340" t="s">
-        <v>394</v>
+        <v>480</v>
       </c>
       <c r="E340" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -7776,13 +7716,13 @@
         <v>40</v>
       </c>
       <c r="C341" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D341" t="s">
-        <v>495</v>
+        <v>353</v>
       </c>
       <c r="E341" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -7793,13 +7733,13 @@
         <v>41</v>
       </c>
       <c r="C342" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D342" t="s">
-        <v>357</v>
+        <v>435</v>
       </c>
       <c r="E342" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -7810,13 +7750,13 @@
         <v>42</v>
       </c>
       <c r="C343" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D343" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="E343" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -7827,13 +7767,13 @@
         <v>43</v>
       </c>
       <c r="C344" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D344" t="s">
-        <v>489</v>
+        <v>369</v>
       </c>
       <c r="E344" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -7844,13 +7784,13 @@
         <v>44</v>
       </c>
       <c r="C345" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D345" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="E345" t="s">
-        <v>525</v>
+        <v>500</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -7861,13 +7801,13 @@
         <v>45</v>
       </c>
       <c r="C346" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D346" t="s">
-        <v>354</v>
+        <v>451</v>
       </c>
       <c r="E346" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -7878,13 +7818,13 @@
         <v>46</v>
       </c>
       <c r="C347" t="s">
-        <v>297</v>
+        <v>240</v>
       </c>
       <c r="D347" t="s">
-        <v>463</v>
+        <v>369</v>
       </c>
       <c r="E347" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -7895,13 +7835,13 @@
         <v>47</v>
       </c>
       <c r="C348" t="s">
-        <v>246</v>
+        <v>295</v>
       </c>
       <c r="D348" t="s">
-        <v>378</v>
+        <v>481</v>
       </c>
       <c r="E348" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -7912,13 +7852,13 @@
         <v>48</v>
       </c>
       <c r="C349" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D349" t="s">
-        <v>496</v>
+        <v>460</v>
       </c>
       <c r="E349" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -7929,13 +7869,13 @@
         <v>49</v>
       </c>
       <c r="C350" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D350" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="E350" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -7946,13 +7886,13 @@
         <v>50</v>
       </c>
       <c r="C351" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D351" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="E351" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -7963,13 +7903,13 @@
         <v>51</v>
       </c>
       <c r="C352" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D352" t="s">
-        <v>498</v>
+        <v>365</v>
       </c>
       <c r="E352" t="s">
-        <v>536</v>
+        <v>505</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -7980,13 +7920,13 @@
         <v>52</v>
       </c>
       <c r="C353" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D353" t="s">
-        <v>499</v>
+        <v>404</v>
       </c>
       <c r="E353" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -7997,13 +7937,13 @@
         <v>53</v>
       </c>
       <c r="C354" t="s">
-        <v>303</v>
+        <v>216</v>
       </c>
       <c r="D354" t="s">
-        <v>491</v>
+        <v>458</v>
       </c>
       <c r="E354" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -8014,13 +7954,13 @@
         <v>54</v>
       </c>
       <c r="C355" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D355" t="s">
-        <v>372</v>
+        <v>483</v>
       </c>
       <c r="E355" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -8031,13 +7971,13 @@
         <v>55</v>
       </c>
       <c r="C356" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D356" t="s">
-        <v>418</v>
+        <v>344</v>
       </c>
       <c r="E356" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -8048,13 +7988,13 @@
         <v>56</v>
       </c>
       <c r="C357" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D357" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="E357" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -8065,13 +8005,13 @@
         <v>57</v>
       </c>
       <c r="C358" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D358" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="E358" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -8082,13 +8022,13 @@
         <v>58</v>
       </c>
       <c r="C359" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D359" t="s">
-        <v>348</v>
+        <v>485</v>
       </c>
       <c r="E359" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -8099,13 +8039,13 @@
         <v>59</v>
       </c>
       <c r="C360" t="s">
-        <v>211</v>
+        <v>305</v>
       </c>
       <c r="D360" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="E360" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -8116,13 +8056,13 @@
         <v>60</v>
       </c>
       <c r="C361" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D361" t="s">
-        <v>501</v>
+        <v>343</v>
       </c>
       <c r="E361" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -8133,13 +8073,13 @@
         <v>61</v>
       </c>
       <c r="C362" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D362" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="E362" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -8150,13 +8090,13 @@
         <v>62</v>
       </c>
       <c r="C363" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D363" t="s">
-        <v>491</v>
+        <v>435</v>
       </c>
       <c r="E363" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -8167,13 +8107,13 @@
         <v>63</v>
       </c>
       <c r="C364" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D364" t="s">
-        <v>347</v>
+        <v>397</v>
       </c>
       <c r="E364" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -8184,13 +8124,13 @@
         <v>64</v>
       </c>
       <c r="C365" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D365" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="E365" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -8201,13 +8141,13 @@
         <v>65</v>
       </c>
       <c r="C366" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D366" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="E366" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -8218,13 +8158,13 @@
         <v>66</v>
       </c>
       <c r="C367" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D367" t="s">
-        <v>412</v>
+        <v>344</v>
       </c>
       <c r="E367" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -8235,13 +8175,13 @@
         <v>67</v>
       </c>
       <c r="C368" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D368" t="s">
-        <v>504</v>
+        <v>347</v>
       </c>
       <c r="E368" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -8252,13 +8192,13 @@
         <v>68</v>
       </c>
       <c r="C369" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D369" t="s">
-        <v>505</v>
+        <v>369</v>
       </c>
       <c r="E369" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -8269,13 +8209,13 @@
         <v>69</v>
       </c>
       <c r="C370" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D370" t="s">
-        <v>348</v>
+        <v>396</v>
       </c>
       <c r="E370" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -8286,13 +8226,13 @@
         <v>70</v>
       </c>
       <c r="C371" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="D371" t="s">
-        <v>351</v>
+        <v>452</v>
       </c>
       <c r="E371" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -8303,13 +8243,13 @@
         <v>71</v>
       </c>
       <c r="C372" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D372" t="s">
-        <v>378</v>
+        <v>489</v>
       </c>
       <c r="E372" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -8320,13 +8260,13 @@
         <v>72</v>
       </c>
       <c r="C373" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D373" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="E373" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -8337,13 +8277,13 @@
         <v>73</v>
       </c>
       <c r="C374" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D374" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="E374" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -8354,13 +8294,13 @@
         <v>74</v>
       </c>
       <c r="C375" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D375" t="s">
-        <v>506</v>
+        <v>387</v>
       </c>
       <c r="E375" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -8371,13 +8311,13 @@
         <v>75</v>
       </c>
       <c r="C376" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D376" t="s">
-        <v>435</v>
+        <v>490</v>
       </c>
       <c r="E376" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -8388,13 +8328,13 @@
         <v>76</v>
       </c>
       <c r="C377" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D377" t="s">
-        <v>499</v>
+        <v>425</v>
       </c>
       <c r="E377" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -8405,13 +8345,13 @@
         <v>77</v>
       </c>
       <c r="C378" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D378" t="s">
-        <v>399</v>
+        <v>491</v>
       </c>
       <c r="E378" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -8422,13 +8362,13 @@
         <v>78</v>
       </c>
       <c r="C379" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D379" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="E379" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -8439,13 +8379,13 @@
         <v>79</v>
       </c>
       <c r="C380" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D380" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="E380" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -8456,13 +8396,13 @@
         <v>80</v>
       </c>
       <c r="C381" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D381" t="s">
-        <v>508</v>
+        <v>460</v>
       </c>
       <c r="E381" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -8473,13 +8413,13 @@
         <v>81</v>
       </c>
       <c r="C382" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D382" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="E382" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -8490,13 +8430,13 @@
         <v>82</v>
       </c>
       <c r="C383" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D383" t="s">
-        <v>434</v>
+        <v>369</v>
       </c>
       <c r="E383" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -8507,13 +8447,13 @@
         <v>83</v>
       </c>
       <c r="C384" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D384" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="E384" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -8524,13 +8464,13 @@
         <v>84</v>
       </c>
       <c r="C385" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D385" t="s">
-        <v>510</v>
+        <v>343</v>
       </c>
       <c r="E385" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -8541,13 +8481,13 @@
         <v>85</v>
       </c>
       <c r="C386" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D386" t="s">
-        <v>378</v>
+        <v>449</v>
       </c>
       <c r="E386" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -8558,13 +8498,13 @@
         <v>86</v>
       </c>
       <c r="C387" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D387" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="E387" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -8575,13 +8515,13 @@
         <v>87</v>
       </c>
       <c r="C388" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D388" t="s">
-        <v>347</v>
+        <v>439</v>
       </c>
       <c r="E388" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -8592,13 +8532,13 @@
         <v>88</v>
       </c>
       <c r="C389" t="s">
-        <v>336</v>
+        <v>199</v>
       </c>
       <c r="D389" t="s">
-        <v>461</v>
+        <v>439</v>
       </c>
       <c r="E389" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -8609,13 +8549,13 @@
         <v>89</v>
       </c>
       <c r="C390" t="s">
-        <v>337</v>
+        <v>191</v>
       </c>
       <c r="D390" t="s">
-        <v>512</v>
+        <v>350</v>
       </c>
       <c r="E390" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -8626,13 +8566,13 @@
         <v>90</v>
       </c>
       <c r="C391" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D391" t="s">
-        <v>452</v>
+        <v>351</v>
       </c>
       <c r="E391" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -8643,13 +8583,13 @@
         <v>91</v>
       </c>
       <c r="C392" t="s">
-        <v>202</v>
+        <v>334</v>
       </c>
       <c r="D392" t="s">
-        <v>452</v>
+        <v>496</v>
       </c>
       <c r="E392" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -8660,13 +8600,13 @@
         <v>92</v>
       </c>
       <c r="C393" t="s">
-        <v>194</v>
+        <v>335</v>
       </c>
       <c r="D393" t="s">
-        <v>354</v>
+        <v>409</v>
       </c>
       <c r="E393" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -8677,13 +8617,13 @@
         <v>93</v>
       </c>
       <c r="C394" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D394" t="s">
-        <v>355</v>
+        <v>497</v>
       </c>
       <c r="E394" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -8694,13 +8634,13 @@
         <v>94</v>
       </c>
       <c r="C395" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D395" t="s">
-        <v>513</v>
+        <v>347</v>
       </c>
       <c r="E395" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -8711,13 +8651,13 @@
         <v>95</v>
       </c>
       <c r="C396" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D396" t="s">
         <v>498</v>
       </c>
       <c r="E396" t="s">
-        <v>536</v>
+        <v>509</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -8728,13 +8668,13 @@
         <v>96</v>
       </c>
       <c r="C397" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D397" t="s">
-        <v>419</v>
+        <v>378</v>
       </c>
       <c r="E397" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -8745,13 +8685,13 @@
         <v>97</v>
       </c>
       <c r="C398" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D398" t="s">
-        <v>514</v>
+        <v>347</v>
       </c>
       <c r="E398" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -8762,13 +8702,13 @@
         <v>98</v>
       </c>
       <c r="C399" t="s">
-        <v>344</v>
+        <v>243</v>
       </c>
       <c r="D399" t="s">
-        <v>351</v>
+        <v>464</v>
       </c>
       <c r="E399" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -8779,13 +8719,13 @@
         <v>99</v>
       </c>
       <c r="C400" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D400" t="s">
-        <v>407</v>
+        <v>499</v>
       </c>
       <c r="E400" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -8796,13 +8736,13 @@
         <v>100</v>
       </c>
       <c r="C401" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D401" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="E401" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
